--- a/biology/Médecine/1570_en_santé_et_médecine/1570_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1570_en_santé_et_médecine/1570_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1570_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1570_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1570 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1570_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1570_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11 janvier : Francisco Hernández (1515-1578) est chargé par Philippe II, roi d'Espagne, de rédiger une description de toutes les plantes médicinales endémiques des colonies américaines[1],[2].
-23 juillet : une balle d'arquebuse emporte le nez et les joues de Blaise de Monluc alors qu'il monte à l'assaut de Rabastens et cette blessure, qui met un terme à ses exploits militaires, ne guérira jamais complètement et l'obligera à porter un masque de cuir jusqu'à sa mort[3].
-17--30 novembre : secousses sismiques quotidiennes à Venise, et surtout à Ferrare où le tiers de la ville est détruit, et qui sont ressenties « à Florence, à Modène, et Reggio, et dans tout le pays voisin[4] ».
-Vers 1570 : au village de la Madeleine, près Combourg, en Bretagne, la chapelle d'une léproserie fondée vers 1146 existe encore[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11 janvier : Francisco Hernández (1515-1578) est chargé par Philippe II, roi d'Espagne, de rédiger une description de toutes les plantes médicinales endémiques des colonies américaines,.
+23 juillet : une balle d'arquebuse emporte le nez et les joues de Blaise de Monluc alors qu'il monte à l'assaut de Rabastens et cette blessure, qui met un terme à ses exploits militaires, ne guérira jamais complètement et l'obligera à porter un masque de cuir jusqu'à sa mort.
+17--30 novembre : secousses sismiques quotidiennes à Venise, et surtout à Ferrare où le tiers de la ville est détruit, et qui sont ressenties « à Florence, à Modène, et Reggio, et dans tout le pays voisin ».
+Vers 1570 : au village de la Madeleine, près Combourg, en Bretagne, la chapelle d'une léproserie fondée vers 1146 existe encore.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1570_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1570_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Entre 1570 et 1575 : Pietro Castelli (mort en 1661), médecin et naturaliste italien[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Entre 1570 et 1575 : Pietro Castelli (mort en 1661), médecin et naturaliste italien.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1570_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1570_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5 novembre : Jacques Grévin (né en 1538), médecin, dramaturge et poète français[7].
-Jean Planeri (né vers 1480), philosophe et médecin lombard, au service des empereurs d'Allemagne Ferdinand Ier et Maximilien II[8].
-Dans les années 1570 : Sébastien Colin (né vers 1519), médecin, auteur d'une Déclaration des abus et tromperies que font les apothicaires[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 novembre : Jacques Grévin (né en 1538), médecin, dramaturge et poète français.
+Jean Planeri (né vers 1480), philosophe et médecin lombard, au service des empereurs d'Allemagne Ferdinand Ier et Maximilien II.
+Dans les années 1570 : Sébastien Colin (né vers 1519), médecin, auteur d'une Déclaration des abus et tromperies que font les apothicaires.</t>
         </is>
       </c>
     </row>
